--- a/_Out/Server/NFDataCfg/Excel_Ini/ChatGroup.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/ChatGroup.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NF\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Ini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
@@ -37,168 +37,17 @@
   </si>
   <si>
     <t>UpStateFunc</t>
-  </si>
-  <si>
-    <t>Func1</t>
-  </si>
-  <si>
-    <t>Build_Altar_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Build_Arena_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Build_Camp_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Build_Gold_Mine_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Build_Item_Hourse_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Build_League_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Build_Magic_Hourse_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Build_Tower_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Desc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一级祭坛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级竞技场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级兵营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级金矿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级道具屋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级公会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级魔法屋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级箭塔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级大厅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Build_Town_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Icon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ShowName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Object/Altar_1_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Func1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Altar_1_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Object/Arena_1_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arena_1_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Object/Camp_1_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Camp_1_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Object/GoldMine_1_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoldMine_1_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Object/Item_hourse_1_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item_hourse_1_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Object/League_1_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>League_1_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Object/MagicHourse_1_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MagicHourse_1_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Object/Tower_1_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tower_1_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Object/Town_1_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Town_1_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -599,7 +448,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I10" sqref="A2:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -643,275 +492,95 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/_Out/Server/NFDataCfg/Excel_Ini/ChatGroup.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/ChatGroup.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
+    <workbookView windowWidth="19455" windowHeight="9990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,66 +14,443 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>CreateObject</t>
   </si>
   <si>
     <t>Type</t>
   </si>
   <si>
-    <t>SubType</t>
+    <t>string</t>
   </si>
   <si>
-    <t>Prefab</t>
+    <t>object</t>
   </si>
   <si>
-    <t>NormalStateFunc</t>
+    <t>Public</t>
   </si>
   <si>
-    <t>UpStateFunc</t>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Cache</t>
   </si>
   <si>
     <t>Desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>组名字</t>
   </si>
   <si>
-    <t>ShowName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>创建者</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -86,33 +458,440 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -162,71 +941,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -444,148 +1223,120 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="A2:I10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.75" customWidth="1"/>
     <col min="2" max="2" width="13.25" customWidth="1"/>
     <col min="3" max="3" width="17.875" customWidth="1"/>
-    <col min="4" max="4" width="59.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
-    <col min="7" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="16.875" customWidth="1"/>
-    <col min="11" max="11" width="14.625" customWidth="1"/>
-    <col min="12" max="12" width="22" customWidth="1"/>
-    <col min="13" max="13" width="16.75" customWidth="1"/>
-    <col min="14" max="14" width="13.25" customWidth="1"/>
-    <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="14.25" customWidth="1"/>
-    <col min="17" max="17" width="12.125" customWidth="1"/>
-    <col min="18" max="18" width="13.375" customWidth="1"/>
-    <col min="20" max="20" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="14.25" customWidth="1"/>
+    <col min="8" max="8" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="13.375" customWidth="1"/>
+    <col min="11" max="11" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:3">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:3">
+      <c r="A3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:3">
+      <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:3">
+      <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
-        <v>6</v>
+      <c r="B5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+    <row r="6" s="2" customFormat="1" spans="1:3">
+      <c r="A6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+    <row r="7" s="3" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+    <row r="8" spans="1:1">
+      <c r="A8" s="13"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+    <row r="9" spans="1:1">
+      <c r="A9" s="13"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+    <row r="10" spans="1:1">
+      <c r="A10" s="13"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6"/>
+  </dataValidations>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Ini/ChatGroup.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/ChatGroup.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="19455" windowHeight="9990"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Property1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -60,12 +60,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -80,20 +80,96 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -101,60 +177,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,34 +208,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -214,31 +230,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,13 +252,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,37 +324,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,133 +378,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,6 +545,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -579,39 +604,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -635,164 +627,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -803,37 +784,37 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1228,7 +1209,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B27" sqref="B26:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/_Out/Server/NFDataCfg/Excel_Ini/ChatGroup.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/ChatGroup.xlsx
@@ -4,19 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19455" windowHeight="9990"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
+    <sheet name="Record_GroupMemberList" sheetId="2" r:id="rId2"/>
+    <sheet name="Record_ChatList" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="2" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
-  <si>
-    <t>ID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+  <si>
+    <t>Id</t>
   </si>
   <si>
     <t>Name</t>
@@ -53,6 +59,48 @@
   </si>
   <si>
     <t>创建者</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Col</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>SaveInterval</t>
+  </si>
+  <si>
+    <t>RelationValue</t>
+  </si>
+  <si>
+    <t>GUID</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>GameID</t>
+  </si>
+  <si>
+    <t>GroupMemberList</t>
+  </si>
+  <si>
+    <t>Friend</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>msg</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>ChatList</t>
   </si>
 </sst>
 </file>
@@ -60,12 +108,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -73,11 +121,40 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -88,113 +165,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,15 +187,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -230,8 +218,61 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,6 +287,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -258,25 +329,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,43 +449,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,98 +477,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -440,92 +487,76 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,82 +579,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,192 +589,183 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1206,28 +1154,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B26:B27"/>
+      <selection activeCell="A2" sqref="$A2:$XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="22.75" customWidth="1"/>
     <col min="2" max="2" width="13.25" customWidth="1"/>
     <col min="3" max="3" width="17.875" customWidth="1"/>
-    <col min="4" max="4" width="16.75" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="14.25" customWidth="1"/>
-    <col min="8" max="8" width="12.125" customWidth="1"/>
-    <col min="9" max="9" width="13.375" customWidth="1"/>
-    <col min="11" max="11" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="59.375" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="7" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="16.875" customWidth="1"/>
+    <col min="11" max="11" width="14.625" customWidth="1"/>
+    <col min="12" max="12" width="22" customWidth="1"/>
+    <col min="13" max="13" width="16.75" customWidth="1"/>
+    <col min="14" max="14" width="13.25" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="16" width="14.25" customWidth="1"/>
+    <col min="17" max="17" width="12.125" customWidth="1"/>
+    <col min="18" max="18" width="13.375" customWidth="1"/>
+    <col min="20" max="20" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:9">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -1236,88 +1191,357 @@
       <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:3">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="4" customFormat="1" spans="1:9">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:3">
-      <c r="A3" s="7" t="s">
+    <row r="3" s="4" customFormat="1" spans="1:9">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9" t="b">
+      <c r="B3" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="C3" s="9" t="b">
+      <c r="C3" s="8" t="b">
         <v>0</v>
       </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:3">
-      <c r="A4" s="7" t="s">
+    <row r="4" s="4" customFormat="1" spans="1:9">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="9" t="b">
+      <c r="B4" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" s="4" customFormat="1" spans="1:9">
+      <c r="A5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" s="4" customFormat="1" spans="1:9">
+      <c r="A6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="C4" s="9" t="b">
+      <c r="C6" s="8" t="b">
         <v>0</v>
       </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:3">
-      <c r="A5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="1:3">
-      <c r="A6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="3" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A7" s="10" t="s">
+    <row r="7" s="4" customFormat="1" spans="1:3">
+      <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="13"/>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="13"/>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="13"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:C6">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="26.5" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="9.25" style="1" customWidth="1"/>
+    <col min="5" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="12.875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1">
+        <v>126</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3 D1:F3">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C3">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="26.5" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="9.25" style="1" customWidth="1"/>
+    <col min="5" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="12.875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1">
+        <v>126</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3 D1:F3">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C3">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Ini/ChatGroup.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/ChatGroup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="19455" windowHeight="9990"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -108,12 +108,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -121,22 +121,45 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,35 +173,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -187,27 +181,93 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -218,59 +278,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -293,25 +300,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,164 +484,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -487,11 +494,134 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,26 +637,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,26 +671,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,152 +686,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -744,29 +841,47 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1157,7 +1272,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD7"/>
+      <selection activeCell="A1" sqref="$A1:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1182,115 +1297,115 @@
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:9">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" s="4" customFormat="1" spans="1:9">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" s="4" customFormat="1" spans="1:9">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8" t="b">
+      <c r="B3" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="b">
+      <c r="C3" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:9">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="8" t="b">
+      <c r="B4" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="b">
+      <c r="C4" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" s="4" customFormat="1" spans="1:9">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8" t="b">
+      <c r="B5" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="b">
+      <c r="C5" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" s="4" customFormat="1" spans="1:9">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8" t="b">
+      <c r="B6" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="C6" s="8" t="b">
+      <c r="C6" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
     </row>
-    <row r="7" s="4" customFormat="1" spans="1:3">
-      <c r="A7" s="8" t="s">
+    <row r="7" s="5" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="16" t="s">
         <v>12</v>
       </c>
     </row>

--- a/_Out/Server/NFDataCfg/Excel_Ini/ChatGroup.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/ChatGroup.xlsx
@@ -4,23 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19455" windowHeight="9990"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
-    <sheet name="Record_GroupMemberList" sheetId="2" r:id="rId2"/>
-    <sheet name="Record_ChatList" sheetId="3" r:id="rId3"/>
+    <sheet name="Record" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="2" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>Id</t>
   </si>
@@ -61,21 +59,15 @@
     <t>创建者</t>
   </si>
   <si>
+    <t>GroupMemberList</t>
+  </si>
+  <si>
     <t>Row</t>
   </si>
   <si>
     <t>Col</t>
   </si>
   <si>
-    <t>Index</t>
-  </si>
-  <si>
-    <t>SaveInterval</t>
-  </si>
-  <si>
-    <t>RelationValue</t>
-  </si>
-  <si>
     <t>GUID</t>
   </si>
   <si>
@@ -85,22 +77,16 @@
     <t>GameID</t>
   </si>
   <si>
-    <t>GroupMemberList</t>
-  </si>
-  <si>
-    <t>Friend</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
+    <t>ChatList</t>
+  </si>
+  <si>
     <t>msg</t>
   </si>
   <si>
     <t>time</t>
-  </si>
-  <si>
-    <t>ChatList</t>
   </si>
 </sst>
 </file>
@@ -108,10 +94,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -126,43 +112,6 @@
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -174,6 +123,111 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -182,14 +236,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,78 +259,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -300,13 +286,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,43 +394,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,13 +448,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,110 +470,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -500,7 +486,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -518,6 +504,19 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -580,6 +579,26 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,20 +618,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,6 +657,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -655,203 +680,171 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -859,28 +852,49 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1271,7 +1285,7 @@
   <sheetPr/>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD7"/>
     </sheetView>
   </sheetViews>
@@ -1296,116 +1310,116 @@
     <col min="20" max="20" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:9">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="10" customFormat="1" spans="1:9">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-    </row>
-    <row r="2" s="4" customFormat="1" spans="1:9">
-      <c r="A2" s="10" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+    </row>
+    <row r="2" s="11" customFormat="1" spans="1:9">
+      <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-    </row>
-    <row r="3" s="4" customFormat="1" spans="1:9">
-      <c r="A3" s="10" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" s="11" customFormat="1" spans="1:9">
+      <c r="A3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="11" t="b">
+      <c r="B3" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="C3" s="11" t="b">
+      <c r="C3" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-    </row>
-    <row r="4" s="4" customFormat="1" spans="1:9">
-      <c r="A4" s="10" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+    </row>
+    <row r="4" s="11" customFormat="1" spans="1:9">
+      <c r="A4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="11" t="b">
+      <c r="B4" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="b">
+      <c r="C4" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" s="4" customFormat="1" spans="1:9">
-      <c r="A5" s="10" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+    </row>
+    <row r="5" s="11" customFormat="1" spans="1:9">
+      <c r="A5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="11" t="b">
+      <c r="B5" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="C5" s="11" t="b">
+      <c r="C5" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-    </row>
-    <row r="6" s="4" customFormat="1" spans="1:9">
-      <c r="A6" s="10" t="s">
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+    </row>
+    <row r="6" s="11" customFormat="1" spans="1:9">
+      <c r="A6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="11" t="b">
+      <c r="B6" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="C6" s="11" t="b">
+      <c r="C6" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-    </row>
-    <row r="7" s="5" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A7" s="14" t="s">
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+    </row>
+    <row r="7" s="12" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1425,238 +1439,207 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="26.5" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="9.25" style="1" customWidth="1"/>
-    <col min="5" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="12.875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="26.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9" style="4"/>
+    <col min="4" max="4" width="9.25" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:8">
+      <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="7">
+        <v>126</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:3">
+      <c r="A3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="7">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:3">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:3">
+      <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:3">
+      <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B6" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:3">
+      <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B7" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:3">
+      <c r="A8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:3">
+      <c r="A9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="1" spans="1:1">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:2">
+      <c r="A11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:2">
+      <c r="A12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="7">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:2">
+      <c r="A13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B13" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:2">
+      <c r="A14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="1:2">
+      <c r="A15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="1:2">
+      <c r="A16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:2">
+      <c r="A17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="1:3">
+      <c r="A18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="B18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="1:3">
+      <c r="A19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" spans="1:2">
+      <c r="A20" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="1">
-        <v>126</v>
-      </c>
-      <c r="C2" s="1">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="B20" s="9"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3 D1:F3">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 B2 A3 B3 C3 A12:B13">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 E3 F3 G3 A4 B4 A5 B5 A6 B6 B7 B17 A14:B16">
       <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C3">
-      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="1" width="26.5" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="9.25" style="1" customWidth="1"/>
-    <col min="5" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="12.875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="1">
-        <v>126</v>
-      </c>
-      <c r="C2" s="1">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3 D1:F3">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C3">
-      <formula1>0</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Ini/ChatGroup.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/ChatGroup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>Id</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Cache</t>
+  </si>
+  <si>
+    <t>Ref</t>
   </si>
   <si>
     <t>Desc</t>
@@ -94,10 +97,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -112,6 +115,104 @@
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -122,144 +223,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,19 +289,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,168 +463,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -577,6 +580,19 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -587,18 +603,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,6 +619,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,41 +686,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,152 +701,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -867,6 +883,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -889,6 +908,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1283,13 +1305,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="22.75" customWidth="1"/>
     <col min="2" max="2" width="13.25" customWidth="1"/>
@@ -1311,24 +1333,24 @@
   </cols>
   <sheetData>
     <row r="1" s="10" customFormat="1" spans="1:9">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" s="11" customFormat="1" spans="1:9">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1337,15 +1359,15 @@
       <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
     </row>
     <row r="3" s="11" customFormat="1" spans="1:9">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="7" t="b">
@@ -1354,15 +1376,15 @@
       <c r="C3" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" s="11" customFormat="1" spans="1:9">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="7" t="b">
@@ -1371,15 +1393,15 @@
       <c r="C4" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" s="11" customFormat="1" spans="1:9">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="7" t="b">
@@ -1388,15 +1410,15 @@
       <c r="C5" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" s="11" customFormat="1" spans="1:9">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="7" t="b">
@@ -1405,28 +1427,39 @@
       <c r="C6" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-    </row>
-    <row r="7" s="12" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A7" s="19" t="s">
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+    </row>
+    <row r="7" s="12" customFormat="1" spans="1:3">
+      <c r="A7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="13" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="B8" s="22" t="s">
         <v>12</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:C6">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A7"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:C6 B7:J7">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1441,7 +1474,7 @@
   <sheetPr/>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -1459,13 +1492,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="5"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:8">
       <c r="A2" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="7">
         <v>126</v>
@@ -1475,7 +1508,7 @@
     </row>
     <row r="3" s="2" customFormat="1" spans="1:3">
       <c r="A3" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="7">
         <v>3</v>
@@ -1520,13 +1553,13 @@
     </row>
     <row r="8" s="2" customFormat="1" spans="1:3">
       <c r="A8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:3">
@@ -1534,15 +1567,15 @@
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1" spans="1:1">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:2">
@@ -1550,12 +1583,12 @@
         <v>0</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:2">
       <c r="A12" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" s="7">
         <v>126</v>
@@ -1563,7 +1596,7 @@
     </row>
     <row r="13" s="2" customFormat="1" spans="1:2">
       <c r="A13" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" s="7">
         <v>3</v>
@@ -1603,13 +1636,13 @@
     </row>
     <row r="18" s="2" customFormat="1" spans="1:3">
       <c r="A18" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" spans="1:3">
@@ -1620,12 +1653,12 @@
         <v>4</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" spans="1:2">
       <c r="A20" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20" s="9"/>
     </row>

--- a/_Out/Server/NFDataCfg/Excel_Ini/ChatGroup.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/ChatGroup.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -13,12 +18,20 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t>Id</t>
   </si>
@@ -95,14 +108,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -116,159 +123,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,194 +143,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -598,251 +268,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -920,58 +348,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1303,36 +689,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.75" customWidth="1"/>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
-    <col min="3" max="3" width="17.875" customWidth="1"/>
-    <col min="4" max="4" width="59.375" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="4" max="4" width="59.33203125" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
     <col min="7" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="16.875" customWidth="1"/>
-    <col min="11" max="11" width="14.625" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
     <col min="12" max="12" width="22" customWidth="1"/>
-    <col min="13" max="13" width="16.75" customWidth="1"/>
-    <col min="14" max="14" width="13.25" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" customWidth="1"/>
+    <col min="14" max="14" width="13.1640625" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="14.25" customWidth="1"/>
-    <col min="17" max="17" width="12.125" customWidth="1"/>
-    <col min="18" max="18" width="13.375" customWidth="1"/>
-    <col min="20" max="20" width="12.125" customWidth="1"/>
+    <col min="16" max="16" width="14.1640625" customWidth="1"/>
+    <col min="17" max="17" width="12.1640625" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" customWidth="1"/>
+    <col min="20" max="20" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" spans="1:9">
+    <row r="1" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1349,7 +735,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" s="11" customFormat="1" spans="1:9">
+    <row r="2" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -1366,7 +752,7 @@
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
     </row>
-    <row r="3" s="11" customFormat="1" spans="1:9">
+    <row r="3" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
         <v>6</v>
       </c>
@@ -1383,7 +769,7 @@
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
     </row>
-    <row r="4" s="11" customFormat="1" spans="1:9">
+    <row r="4" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="18" t="s">
         <v>7</v>
       </c>
@@ -1400,7 +786,7 @@
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" s="11" customFormat="1" spans="1:9">
+    <row r="5" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
         <v>8</v>
       </c>
@@ -1417,7 +803,7 @@
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
     </row>
-    <row r="6" s="11" customFormat="1" spans="1:9">
+    <row r="6" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
@@ -1434,7 +820,7 @@
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
     </row>
-    <row r="7" s="12" customFormat="1" spans="1:3">
+    <row r="7" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="20" t="s">
         <v>10</v>
       </c>
@@ -1445,7 +831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="13" customFormat="1" ht="14.25" spans="1:3">
+    <row r="8" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="21" t="s">
         <v>11</v>
       </c>
@@ -1463,31 +849,30 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="26.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="9" style="4"/>
-    <col min="4" max="4" width="9.25" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" style="4" customWidth="1"/>
     <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1496,7 +881,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:8">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
@@ -1506,7 +891,7 @@
       <c r="C2" s="7"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:3">
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
@@ -1515,7 +900,7 @@
       </c>
       <c r="C3" s="7"/>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:3">
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -1524,7 +909,7 @@
       </c>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:3">
+    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
@@ -1533,7 +918,7 @@
       </c>
       <c r="C5" s="7"/>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:3">
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -1542,7 +927,7 @@
       </c>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:3">
+    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
@@ -1551,7 +936,7 @@
       </c>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:3">
+    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
@@ -1562,7 +947,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:3">
+    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
@@ -1573,12 +958,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" spans="1:1">
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:2">
+    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>0</v>
       </c>
@@ -1586,7 +971,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:2">
+    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>15</v>
       </c>
@@ -1594,7 +979,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" spans="1:2">
+    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>16</v>
       </c>
@@ -1602,7 +987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" spans="1:2">
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>6</v>
       </c>
@@ -1610,7 +995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" spans="1:2">
+    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
@@ -1618,7 +1003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" spans="1:2">
+    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>8</v>
       </c>
@@ -1626,7 +1011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:2">
+    <row r="17" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>9</v>
       </c>
@@ -1634,7 +1019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" spans="1:3">
+    <row r="18" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>17</v>
       </c>
@@ -1645,7 +1030,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" spans="1:3">
+    <row r="19" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>5</v>
       </c>
@@ -1656,7 +1041,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" spans="1:2">
+    <row r="20" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
         <v>11</v>
       </c>
@@ -1671,8 +1056,7 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Ini/ChatGroup.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/ChatGroup.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cherish\Desktop\git\nf\develop\_Out\Server\NFDataCfg\Excel_Ini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
   <si>
     <t>Id</t>
   </si>
@@ -103,13 +103,17 @@
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>Upload</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -120,6 +124,11 @@
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -349,13 +358,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -690,35 +702,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" customWidth="1"/>
-    <col min="4" max="4" width="59.33203125" customWidth="1"/>
+    <col min="1" max="1" width="22.6328125" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
+    <col min="4" max="4" width="59.36328125" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" customWidth="1"/>
     <col min="7" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="16.83203125" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="16.81640625" customWidth="1"/>
+    <col min="11" max="11" width="14.6328125" customWidth="1"/>
     <col min="12" max="12" width="22" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" customWidth="1"/>
-    <col min="14" max="14" width="13.1640625" customWidth="1"/>
+    <col min="13" max="13" width="16.6328125" customWidth="1"/>
+    <col min="14" max="14" width="13.1796875" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="14.1640625" customWidth="1"/>
-    <col min="17" max="17" width="12.1640625" customWidth="1"/>
-    <col min="18" max="18" width="13.33203125" customWidth="1"/>
-    <col min="20" max="20" width="12.1640625" customWidth="1"/>
+    <col min="16" max="16" width="14.1796875" customWidth="1"/>
+    <col min="17" max="17" width="12.1796875" customWidth="1"/>
+    <col min="18" max="18" width="13.36328125" customWidth="1"/>
+    <col min="20" max="20" width="12.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -735,7 +747,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -752,7 +764,7 @@
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
     </row>
-    <row r="3" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>6</v>
       </c>
@@ -769,7 +781,7 @@
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
     </row>
-    <row r="4" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>7</v>
       </c>
@@ -786,7 +798,7 @@
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>8</v>
       </c>
@@ -803,7 +815,7 @@
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
     </row>
-    <row r="6" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
@@ -820,7 +832,7 @@
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
     </row>
-    <row r="7" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>10</v>
       </c>
@@ -831,21 +843,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="21" t="s">
+    <row r="8" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B9" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C9" s="23" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A7"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:C6 B7:J7">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A8"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:C6 B7:J8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -863,16 +887,16 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="26.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" style="4" customWidth="1"/>
     <col min="3" max="3" width="9" style="4"/>
-    <col min="4" max="4" width="9.1640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="4" customWidth="1"/>
     <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -881,7 +905,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
@@ -891,7 +915,7 @@
       <c r="C2" s="7"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
@@ -900,7 +924,7 @@
       </c>
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -909,7 +933,7 @@
       </c>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
@@ -918,7 +942,7 @@
       </c>
       <c r="C5" s="7"/>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -927,7 +951,7 @@
       </c>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
@@ -936,7 +960,7 @@
       </c>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
@@ -947,7 +971,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
@@ -958,12 +982,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>0</v>
       </c>
@@ -971,7 +995,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>15</v>
       </c>
@@ -979,7 +1003,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>16</v>
       </c>
@@ -987,7 +1011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>6</v>
       </c>
@@ -995,7 +1019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
@@ -1003,7 +1027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>8</v>
       </c>
@@ -1011,7 +1035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>9</v>
       </c>
@@ -1019,7 +1043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>17</v>
       </c>
@@ -1030,7 +1054,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>5</v>
       </c>
@@ -1041,13 +1065,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 B2 A3 B3 C3 A12:B13">
       <formula1>0</formula1>

--- a/_Out/Server/NFDataCfg/Excel_Ini/ChatGroup.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/ChatGroup.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="17540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
   <si>
     <t>Id</t>
   </si>
@@ -103,6 +103,14 @@
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>Upload</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upload</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Upload</t>
@@ -113,7 +121,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -130,6 +138,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -283,7 +299,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -354,6 +370,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -704,7 +723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
@@ -881,10 +900,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -962,74 +981,75 @@
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>19</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B8" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="6" t="s">
+    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="7">
-        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="7">
-        <v>3</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="7" t="b">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="B14" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" s="7" t="b">
         <v>1</v>
@@ -1037,51 +1057,67 @@
     </row>
     <row r="17" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>23</v>
+        <v>9</v>
+      </c>
+      <c r="B18" s="7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>20</v>
+      <c r="A19" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="9"/>
+      <c r="B22" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 B2 A3 B3 C3 A12:B13">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:B2 A3:C3 A13:B14">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 E3 F3 G3 A4 B4 A5 B5 A6 B6 B7 B17 A14:B16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:G3 A4:A6 A15:B17 B4:B8 B18:B19">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>